--- a/go/output/output.xlsx
+++ b/go/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>親タスク</t>
   </si>
@@ -37,10 +37,10 @@
     <t>要約</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>バグチケット</t>
+    <t>機能開発A【進捗なし】</t>
+  </si>
+  <si>
+    <t>バグが発生しました</t>
   </si>
   <si>
     <t>新規</t>
@@ -49,22 +49,34 @@
     <t>2025/12/28</t>
   </si>
   <si>
+    <t>----/--/--</t>
+  </si>
+  <si>
+    <t>Redmine Admin</t>
+  </si>
+  <si>
+    <t>機能開発Aのバグです</t>
+  </si>
+  <si>
+    <t>バグが発生しました2</t>
+  </si>
+  <si>
+    <t>機能開発Aのバグです2</t>
+  </si>
+  <si>
+    <t>機能開発B</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>2025/12/31</t>
   </si>
   <si>
-    <t>Redmine Admin</t>
-  </si>
-  <si>
-    <t>バグの要約とかです</t>
-  </si>
-  <si>
-    <t>機能開発A</t>
-  </si>
-  <si>
-    <t>解決</t>
-  </si>
-  <si>
-    <t>要約です</t>
+    <t>機能開発Bの要約です。
+改行ははどうなるでしょうか。
+\nはどうなりますか
+&lt;pre&gt;そのまま表示&lt;/pre&gt;</t>
   </si>
 </sst>
 </file>
@@ -119,8 +131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:G3">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:G4">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="親タスク"/>
     <tableColumn id="2" name="タスク名"/>
@@ -455,19 +467,42 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/go/output/output.xlsx
+++ b/go/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>親タスク</t>
   </si>
@@ -34,6 +34,12 @@
     <t>担当者</t>
   </si>
   <si>
+    <t>進捗</t>
+  </si>
+  <si>
+    <t>課題</t>
+  </si>
+  <si>
     <t>要約</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>Redmine Admin</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>機能開発Aのバグです</t>
   </si>
   <si>
@@ -65,9 +74,6 @@
   </si>
   <si>
     <t>機能開発B</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025/12/31</t>
@@ -131,16 +137,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:G4">
-  <autoFilter ref="A1:G4"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:I4">
+  <autoFilter ref="A1:I4"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="親タスク"/>
     <tableColumn id="2" name="タスク名"/>
     <tableColumn id="3" name="ステータス"/>
     <tableColumn id="4" name="開始日"/>
     <tableColumn id="5" name="終了日"/>
     <tableColumn id="6" name="担当者"/>
-    <tableColumn id="7" name="要約"/>
+    <tableColumn id="7" name="進捗"/>
+    <tableColumn id="8" name="課題"/>
+    <tableColumn id="9" name="要約"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
@@ -410,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="7" min="1" width="15"/>
+    <col customWidth="true" max="9" min="1" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,74 +443,98 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
